--- a/SchedulingData/static5/pso/scheduling1_7.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_7.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>61.52</v>
+        <v>80.3</v>
       </c>
       <c r="E2" t="n">
-        <v>25.528</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>61.52</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>103.12</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>22.008</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>67.45999999999999</v>
+        <v>130.06</v>
       </c>
       <c r="E4" t="n">
-        <v>25.424</v>
+        <v>23.764</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67.45999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="D5" t="n">
-        <v>133.08</v>
+        <v>129.6</v>
       </c>
       <c r="E5" t="n">
-        <v>21.992</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>133.08</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>196.48</v>
+        <v>60.72</v>
       </c>
       <c r="E6" t="n">
-        <v>18.252</v>
+        <v>26.128</v>
       </c>
     </row>
     <row r="7">
@@ -561,150 +561,150 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>61.38</v>
+        <v>49.48</v>
       </c>
       <c r="E7" t="n">
-        <v>27.032</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60.72</v>
       </c>
       <c r="D8" t="n">
-        <v>84.78</v>
+        <v>98.84</v>
       </c>
       <c r="E8" t="n">
-        <v>26.152</v>
+        <v>22.956</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>103.12</v>
+        <v>49.48</v>
       </c>
       <c r="D9" t="n">
-        <v>172.24</v>
+        <v>102.08</v>
       </c>
       <c r="E9" t="n">
-        <v>17.696</v>
+        <v>24.592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="D10" t="n">
-        <v>43.72</v>
+        <v>179.4</v>
       </c>
       <c r="E10" t="n">
-        <v>26.828</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>102.08</v>
       </c>
       <c r="D11" t="n">
-        <v>80.09999999999999</v>
+        <v>149.38</v>
       </c>
       <c r="E11" t="n">
-        <v>26.62</v>
+        <v>20.992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>80.09999999999999</v>
+        <v>179.4</v>
       </c>
       <c r="D12" t="n">
-        <v>125.7</v>
+        <v>234.08</v>
       </c>
       <c r="E12" t="n">
-        <v>23.7</v>
+        <v>16.112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>43.72</v>
+        <v>149.38</v>
       </c>
       <c r="D13" t="n">
-        <v>102.48</v>
+        <v>188.5</v>
       </c>
       <c r="E13" t="n">
-        <v>23.552</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>172.24</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>250.68</v>
+        <v>80.2</v>
       </c>
       <c r="E14" t="n">
-        <v>13.432</v>
+        <v>24.66</v>
       </c>
     </row>
     <row r="15">
@@ -713,98 +713,98 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>102.48</v>
+        <v>130.06</v>
       </c>
       <c r="D15" t="n">
-        <v>181.2</v>
+        <v>205.68</v>
       </c>
       <c r="E15" t="n">
-        <v>19.8</v>
+        <v>19.292</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>61.38</v>
+        <v>98.84</v>
       </c>
       <c r="D16" t="n">
-        <v>106.28</v>
+        <v>157.6</v>
       </c>
       <c r="E16" t="n">
-        <v>23.672</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>181.2</v>
+        <v>188.5</v>
       </c>
       <c r="D17" t="n">
-        <v>246.3</v>
+        <v>256.34</v>
       </c>
       <c r="E17" t="n">
-        <v>16.38</v>
+        <v>15.536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>125.7</v>
+        <v>157.6</v>
       </c>
       <c r="D18" t="n">
-        <v>178.48</v>
+        <v>232.9</v>
       </c>
       <c r="E18" t="n">
-        <v>20.532</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>84.78</v>
+        <v>205.68</v>
       </c>
       <c r="D19" t="n">
-        <v>169.08</v>
+        <v>247.28</v>
       </c>
       <c r="E19" t="n">
-        <v>20.812</v>
+        <v>15.772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -812,127 +812,127 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>246.3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>298.16</v>
+        <v>47.56</v>
       </c>
       <c r="E20" t="n">
-        <v>12.324</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>106.28</v>
+        <v>47.56</v>
       </c>
       <c r="D21" t="n">
-        <v>153.58</v>
+        <v>112.86</v>
       </c>
       <c r="E21" t="n">
-        <v>20.072</v>
+        <v>21.524</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>153.58</v>
+        <v>234.08</v>
       </c>
       <c r="D22" t="n">
-        <v>196.18</v>
+        <v>297.92</v>
       </c>
       <c r="E22" t="n">
-        <v>16.952</v>
+        <v>11.848</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>250.68</v>
+        <v>80.2</v>
       </c>
       <c r="D23" t="n">
-        <v>296.56</v>
+        <v>149.58</v>
       </c>
       <c r="E23" t="n">
-        <v>10.484</v>
+        <v>20.812</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>196.48</v>
+        <v>232.9</v>
       </c>
       <c r="D24" t="n">
-        <v>235.18</v>
+        <v>295.16</v>
       </c>
       <c r="E24" t="n">
-        <v>16.012</v>
+        <v>14.164</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>296.56</v>
+        <v>112.86</v>
       </c>
       <c r="D25" t="n">
-        <v>361.86</v>
+        <v>194.96</v>
       </c>
       <c r="E25" t="n">
-        <v>6.064</v>
+        <v>16.424</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>298.16</v>
+        <v>149.58</v>
       </c>
       <c r="D26" t="n">
-        <v>371.96</v>
+        <v>224.76</v>
       </c>
       <c r="E26" t="n">
-        <v>9.023999999999999</v>
+        <v>17.864</v>
       </c>
     </row>
     <row r="27">
@@ -941,36 +941,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>169.08</v>
+        <v>194.96</v>
       </c>
       <c r="D27" t="n">
-        <v>220.08</v>
+        <v>245.74</v>
       </c>
       <c r="E27" t="n">
-        <v>17.332</v>
+        <v>13.456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>220.08</v>
+        <v>295.16</v>
       </c>
       <c r="D28" t="n">
-        <v>294.78</v>
+        <v>341.26</v>
       </c>
       <c r="E28" t="n">
-        <v>13.952</v>
+        <v>10.684</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>235.18</v>
+        <v>297.92</v>
       </c>
       <c r="D29" t="n">
-        <v>326.88</v>
+        <v>365.6</v>
       </c>
       <c r="E29" t="n">
-        <v>10.912</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="30">
@@ -998,93 +998,93 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>294.78</v>
+        <v>245.74</v>
       </c>
       <c r="D30" t="n">
-        <v>345.78</v>
+        <v>298.24</v>
       </c>
       <c r="E30" t="n">
-        <v>10.472</v>
+        <v>10.816</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>361.86</v>
+        <v>224.76</v>
       </c>
       <c r="D31" t="n">
-        <v>428.92</v>
+        <v>296.62</v>
       </c>
       <c r="E31" t="n">
-        <v>3.468</v>
+        <v>13.288</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>196.18</v>
+        <v>365.6</v>
       </c>
       <c r="D32" t="n">
-        <v>265.8</v>
+        <v>407.72</v>
       </c>
       <c r="E32" t="n">
-        <v>13.08</v>
+        <v>6.088</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>326.88</v>
+        <v>247.28</v>
       </c>
       <c r="D33" t="n">
-        <v>379</v>
+        <v>320.68</v>
       </c>
       <c r="E33" t="n">
-        <v>8.32</v>
+        <v>12.032</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>265.8</v>
+        <v>320.68</v>
       </c>
       <c r="D34" t="n">
-        <v>333</v>
+        <v>394.6</v>
       </c>
       <c r="E34" t="n">
-        <v>9.960000000000001</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1093,93 +1093,93 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>178.48</v>
+        <v>296.62</v>
       </c>
       <c r="D35" t="n">
-        <v>253.16</v>
+        <v>365.84</v>
       </c>
       <c r="E35" t="n">
-        <v>16.684</v>
+        <v>8.976000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>333</v>
+        <v>365.84</v>
       </c>
       <c r="D36" t="n">
-        <v>390.94</v>
+        <v>445.94</v>
       </c>
       <c r="E36" t="n">
-        <v>7.276</v>
+        <v>5.556</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>253.16</v>
+        <v>256.34</v>
       </c>
       <c r="D37" t="n">
-        <v>297.24</v>
+        <v>301.96</v>
       </c>
       <c r="E37" t="n">
-        <v>14.396</v>
+        <v>12.104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>297.24</v>
+        <v>341.26</v>
       </c>
       <c r="D38" t="n">
-        <v>362</v>
+        <v>370.06</v>
       </c>
       <c r="E38" t="n">
-        <v>11.54</v>
+        <v>8.444000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>345.78</v>
+        <v>301.96</v>
       </c>
       <c r="D39" t="n">
-        <v>416.1</v>
+        <v>354.26</v>
       </c>
       <c r="E39" t="n">
-        <v>7.56</v>
+        <v>8.984</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>379</v>
+        <v>407.72</v>
       </c>
       <c r="D40" t="n">
-        <v>431.4</v>
+        <v>458.72</v>
       </c>
       <c r="E40" t="n">
-        <v>5.68</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>371.96</v>
+        <v>298.24</v>
       </c>
       <c r="D41" t="n">
-        <v>410.98</v>
+        <v>338.66</v>
       </c>
       <c r="E41" t="n">
-        <v>6.252</v>
+        <v>7.904</v>
       </c>
     </row>
   </sheetData>
